--- a/Code/Results/Cases/Case_0_181/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_181/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.85199512268614</v>
+        <v>10.25574820157827</v>
       </c>
       <c r="D2">
-        <v>5.437668795208181</v>
+        <v>8.975944711274103</v>
       </c>
       <c r="E2">
-        <v>8.497137618921331</v>
+        <v>13.70060417621826</v>
       </c>
       <c r="F2">
-        <v>28.98123653454443</v>
+        <v>34.4933259223421</v>
       </c>
       <c r="G2">
-        <v>38.56160571752299</v>
+        <v>38.12757742536483</v>
       </c>
       <c r="H2">
-        <v>11.26218891491037</v>
+        <v>16.1460037260745</v>
       </c>
       <c r="I2">
-        <v>21.16180069236911</v>
+        <v>26.73130812648933</v>
       </c>
       <c r="J2">
-        <v>5.799915979230015</v>
+        <v>10.16132451069943</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.889223222166871</v>
+        <v>10.32893753701934</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682247</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
-        <v>21.03242594599091</v>
+        <v>25.95845761623621</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.686441129062636</v>
+        <v>10.25419415395192</v>
       </c>
       <c r="D3">
-        <v>5.376237754732606</v>
+        <v>8.98551772318287</v>
       </c>
       <c r="E3">
-        <v>8.369080680607423</v>
+        <v>13.71301761476383</v>
       </c>
       <c r="F3">
-        <v>27.66449737184846</v>
+        <v>34.32215378162775</v>
       </c>
       <c r="G3">
-        <v>36.39181408201689</v>
+        <v>37.69371076815724</v>
       </c>
       <c r="H3">
-        <v>10.93175383611806</v>
+        <v>16.13245442039478</v>
       </c>
       <c r="I3">
-        <v>20.2946785710098</v>
+        <v>26.63979269713969</v>
       </c>
       <c r="J3">
-        <v>5.785288492834435</v>
+        <v>10.17838943921167</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.876022990610361</v>
+        <v>10.34618474666646</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
-        <v>20.13232674586714</v>
+        <v>25.85418634298525</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.586584202473237</v>
+        <v>10.25496736024115</v>
       </c>
       <c r="D4">
-        <v>5.340627551919926</v>
+        <v>8.992546182110372</v>
       </c>
       <c r="E4">
-        <v>8.293956715519247</v>
+        <v>13.72265027229677</v>
       </c>
       <c r="F4">
-        <v>26.84401977959811</v>
+        <v>34.22483470244289</v>
       </c>
       <c r="G4">
-        <v>35.01980718745936</v>
+        <v>37.43552600402946</v>
       </c>
       <c r="H4">
-        <v>10.73104033158791</v>
+        <v>16.12714361120193</v>
       </c>
       <c r="I4">
-        <v>19.75787183310128</v>
+        <v>26.58940240185017</v>
       </c>
       <c r="J4">
-        <v>5.77864298169884</v>
+        <v>10.18997233868124</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.870225320143066</v>
+        <v>10.35787407113777</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
-        <v>19.57368069894925</v>
+        <v>25.79586358367011</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.546386617446687</v>
+        <v>10.25571774317531</v>
       </c>
       <c r="D5">
-        <v>5.326648942662153</v>
+        <v>8.995699989109644</v>
       </c>
       <c r="E5">
-        <v>8.264236548381634</v>
+        <v>13.72708169799827</v>
       </c>
       <c r="F5">
-        <v>26.5071143779965</v>
+        <v>34.18716484512658</v>
       </c>
       <c r="G5">
-        <v>34.45130040911722</v>
+        <v>37.33250096491668</v>
       </c>
       <c r="H5">
-        <v>10.64989050529979</v>
+        <v>16.12573820316199</v>
       </c>
       <c r="I5">
-        <v>19.53832160824275</v>
+        <v>26.57034141363614</v>
       </c>
       <c r="J5">
-        <v>5.7765116943631</v>
+        <v>10.19497065615716</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.868432850547858</v>
+        <v>10.3629143955219</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>19.34483998268811</v>
+        <v>25.77354764553522</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.539743017308343</v>
+        <v>10.2558686579164</v>
       </c>
       <c r="D6">
-        <v>5.324360044477922</v>
+        <v>8.996241179479636</v>
       </c>
       <c r="E6">
-        <v>8.259355830297958</v>
+        <v>13.72784810662931</v>
       </c>
       <c r="F6">
-        <v>26.45103198784043</v>
+        <v>34.18103076345408</v>
       </c>
       <c r="G6">
-        <v>34.35635223643567</v>
+        <v>37.31552933438714</v>
       </c>
       <c r="H6">
-        <v>10.63645731802636</v>
+        <v>16.12555072288738</v>
       </c>
       <c r="I6">
-        <v>19.50182695176567</v>
+        <v>26.5672657457999</v>
       </c>
       <c r="J6">
-        <v>5.776192323184736</v>
+        <v>10.1958174348461</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.86816935029268</v>
+        <v>10.36376806775663</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>19.30677941099303</v>
+        <v>25.76993022197651</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.586040021695953</v>
+        <v>10.25497571658037</v>
       </c>
       <c r="D7">
-        <v>5.340436871326651</v>
+        <v>8.992587542251956</v>
       </c>
       <c r="E7">
-        <v>8.293552266139157</v>
+        <v>13.72270798663786</v>
       </c>
       <c r="F7">
-        <v>26.83948583930148</v>
+        <v>34.22431858262571</v>
       </c>
       <c r="G7">
-        <v>35.0121773006052</v>
+        <v>37.43412755747885</v>
       </c>
       <c r="H7">
-        <v>10.72994318562707</v>
+        <v>16.12712158243223</v>
       </c>
       <c r="I7">
-        <v>19.75491369876798</v>
+        <v>26.58913935436021</v>
       </c>
       <c r="J7">
-        <v>5.778611916927135</v>
+        <v>10.1900386209079</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.870198851209022</v>
+        <v>10.35794092537158</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304767602</v>
       </c>
       <c r="O7">
-        <v>19.57059883628004</v>
+        <v>25.79555672589981</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.794565888803125</v>
+        <v>10.25485445262171</v>
       </c>
       <c r="D8">
-        <v>5.416051517388705</v>
+        <v>8.979006887707259</v>
       </c>
       <c r="E8">
-        <v>8.452264370787017</v>
+        <v>13.70446727631461</v>
       </c>
       <c r="F8">
-        <v>28.52997137882322</v>
+        <v>34.43271069899556</v>
       </c>
       <c r="G8">
-        <v>37.82202641776617</v>
+        <v>37.97635093970683</v>
       </c>
       <c r="H8">
-        <v>11.14785941926582</v>
+        <v>16.14070899972144</v>
       </c>
       <c r="I8">
-        <v>20.86390134569501</v>
+        <v>26.69855913196358</v>
       </c>
       <c r="J8">
-        <v>5.794381295393425</v>
+        <v>10.16697936907393</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.88418686002985</v>
+        <v>10.33465639849372</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
-        <v>20.72349054557656</v>
+        <v>25.92133296682617</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.215850781742522</v>
+        <v>10.26827549925819</v>
       </c>
       <c r="D9">
-        <v>5.580918086465306</v>
+        <v>8.961489428108681</v>
       </c>
       <c r="E9">
-        <v>8.790696935012143</v>
+        <v>13.68463057890935</v>
       </c>
       <c r="F9">
-        <v>31.73290744012537</v>
+        <v>34.90157944826341</v>
       </c>
       <c r="G9">
-        <v>42.99708649360159</v>
+        <v>39.09920595849644</v>
       </c>
       <c r="H9">
-        <v>11.98074374812117</v>
+        <v>16.19110787293888</v>
       </c>
       <c r="I9">
-        <v>22.99218785521259</v>
+        <v>26.95842681131283</v>
       </c>
       <c r="J9">
-        <v>5.844311655479394</v>
+        <v>10.13051262704167</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.930376209785456</v>
+        <v>10.29770340712711</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380644</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>22.92505832189504</v>
+        <v>26.21234824143748</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.530565717737786</v>
+        <v>10.28638961953558</v>
       </c>
       <c r="D10">
-        <v>5.711937900384193</v>
+        <v>8.954153750359495</v>
       </c>
       <c r="E10">
-        <v>9.055100715487239</v>
+        <v>13.67973727800897</v>
       </c>
       <c r="F10">
-        <v>33.99975281600007</v>
+        <v>35.28053749958867</v>
       </c>
       <c r="G10">
-        <v>46.57647283915164</v>
+        <v>39.95276507461049</v>
       </c>
       <c r="H10">
-        <v>12.59614812492764</v>
+        <v>16.24243436187514</v>
       </c>
       <c r="I10">
-        <v>24.51475952322961</v>
+        <v>27.17588296160245</v>
       </c>
       <c r="J10">
-        <v>5.893238623308638</v>
+        <v>10.10903585112762</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.976373315820751</v>
+        <v>10.2758410929544</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>24.49365809705519</v>
+        <v>26.45193824389075</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.674431874022181</v>
+        <v>10.29640291300782</v>
       </c>
       <c r="D11">
-        <v>5.773639467686271</v>
+        <v>8.952012810803081</v>
       </c>
       <c r="E11">
-        <v>9.178636675745357</v>
+        <v>13.67960411940139</v>
       </c>
       <c r="F11">
-        <v>35.00969773253772</v>
+        <v>35.459897779369</v>
       </c>
       <c r="G11">
-        <v>48.15450775651132</v>
+        <v>40.34560918664415</v>
       </c>
       <c r="H11">
-        <v>12.87607627383683</v>
+        <v>16.26884059538284</v>
       </c>
       <c r="I11">
-        <v>25.19657532757124</v>
+        <v>27.28030770749324</v>
       </c>
       <c r="J11">
-        <v>5.918299058517299</v>
+        <v>10.10041518649371</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.000054636715032</v>
+        <v>10.26703866062771</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>25.1947733442162</v>
+        <v>26.56622826055476</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.72897986470061</v>
+        <v>10.30044764780796</v>
       </c>
       <c r="D12">
-        <v>5.797301852529579</v>
+        <v>8.951373534015241</v>
       </c>
       <c r="E12">
-        <v>9.225871770773363</v>
+        <v>13.67985363855861</v>
       </c>
       <c r="F12">
-        <v>35.38894381546417</v>
+        <v>35.52877180817411</v>
       </c>
       <c r="G12">
-        <v>48.74478502034455</v>
+        <v>40.49488415481617</v>
       </c>
       <c r="H12">
-        <v>12.98202290269746</v>
+        <v>16.27927474049112</v>
       </c>
       <c r="I12">
-        <v>25.45309575138551</v>
+        <v>27.3206175292483</v>
       </c>
       <c r="J12">
-        <v>5.928203949173206</v>
+        <v>10.09731563409771</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.009430030759257</v>
+        <v>10.26386934274421</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>25.45837345932065</v>
+        <v>26.61024105061237</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.717229366331608</v>
+        <v>10.29956532796522</v>
       </c>
       <c r="D13">
-        <v>5.79219257879669</v>
+        <v>8.951503597632469</v>
       </c>
       <c r="E13">
-        <v>9.215678821752839</v>
+        <v>13.67978657735496</v>
       </c>
       <c r="F13">
-        <v>35.30741030946879</v>
+        <v>35.51389690145547</v>
       </c>
       <c r="G13">
-        <v>48.61798275520521</v>
+        <v>40.46271452596196</v>
       </c>
       <c r="H13">
-        <v>12.95920860742583</v>
+        <v>16.27700831258677</v>
       </c>
       <c r="I13">
-        <v>25.39792512206721</v>
+        <v>27.31190241010112</v>
       </c>
       <c r="J13">
-        <v>5.926052099538018</v>
+        <v>10.09797584964782</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.007392550423409</v>
+        <v>10.26454462532379</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>25.40168813043707</v>
+        <v>26.60072994580684</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.678918352638155</v>
+        <v>10.29673061937078</v>
       </c>
       <c r="D14">
-        <v>5.775580252008989</v>
+        <v>8.951956784298698</v>
       </c>
       <c r="E14">
-        <v>9.182513693954206</v>
+        <v>13.67961864235957</v>
       </c>
       <c r="F14">
-        <v>35.04096325215522</v>
+        <v>35.46554524596029</v>
       </c>
       <c r="G14">
-        <v>48.20321644585734</v>
+        <v>40.35788064500555</v>
       </c>
       <c r="H14">
-        <v>12.88479395051924</v>
+        <v>16.26969033741641</v>
       </c>
       <c r="I14">
-        <v>25.21771337914349</v>
+        <v>27.2836088072991</v>
       </c>
       <c r="J14">
-        <v>5.919105551710751</v>
+        <v>10.10015688154475</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.000817716912662</v>
+        <v>10.26677463483672</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>25.21649838183605</v>
+        <v>26.56983468329439</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.655459872378937</v>
+        <v>10.29502715164683</v>
       </c>
       <c r="D15">
-        <v>5.765443315142385</v>
+        <v>8.95225668507454</v>
       </c>
       <c r="E15">
-        <v>9.162257938126954</v>
+        <v>13.67955480695894</v>
       </c>
       <c r="F15">
-        <v>34.87733695689523</v>
+        <v>35.43605126447464</v>
       </c>
       <c r="G15">
-        <v>47.94821000187654</v>
+        <v>40.29372954679263</v>
       </c>
       <c r="H15">
-        <v>12.83920415782116</v>
+        <v>16.26526431818738</v>
       </c>
       <c r="I15">
-        <v>25.10710844039894</v>
+        <v>27.26637721108154</v>
       </c>
       <c r="J15">
-        <v>5.914905003768722</v>
+        <v>10.10151429156747</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.99684389125894</v>
+        <v>10.2681619229725</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549381</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>25.10281473685153</v>
+        <v>26.55100511959452</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.521175007462433</v>
+        <v>10.28577073563207</v>
       </c>
       <c r="D16">
-        <v>5.707947408907746</v>
+        <v>8.954317688712706</v>
       </c>
       <c r="E16">
-        <v>9.047091683923734</v>
+        <v>13.67978801038091</v>
       </c>
       <c r="F16">
-        <v>33.93330948924901</v>
+        <v>35.26895207073295</v>
       </c>
       <c r="G16">
-        <v>46.47232623757557</v>
+        <v>39.9271713231511</v>
       </c>
       <c r="H16">
-        <v>12.57784891900108</v>
+        <v>16.24076976162575</v>
       </c>
       <c r="I16">
-        <v>24.46997316316759</v>
+        <v>27.16916719476818</v>
       </c>
       <c r="J16">
-        <v>5.891658285419589</v>
+        <v>10.10962232749499</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.974882124471772</v>
+        <v>10.27643931841222</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>24.44757806533538</v>
+        <v>26.44457336149639</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.438951043114551</v>
+        <v>10.28054495942445</v>
       </c>
       <c r="D17">
-        <v>5.673209966514422</v>
+        <v>8.955888023426642</v>
       </c>
       <c r="E17">
-        <v>8.977264906055494</v>
+        <v>13.68046642217093</v>
       </c>
       <c r="F17">
-        <v>33.34861727286762</v>
+        <v>35.16819373417128</v>
       </c>
       <c r="G17">
-        <v>45.55398042516968</v>
+        <v>39.7033654192106</v>
       </c>
       <c r="H17">
-        <v>12.41746882728338</v>
+        <v>16.22652284865344</v>
       </c>
       <c r="I17">
-        <v>24.07625001197342</v>
+        <v>27.11092414121871</v>
       </c>
       <c r="J17">
-        <v>5.878123536734154</v>
+        <v>10.11489044382608</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.962123380663479</v>
+        <v>10.28180968445781</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.9381421901699</v>
       </c>
       <c r="O17">
-        <v>24.04233508049079</v>
+        <v>26.3806184330623</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.391725583294237</v>
+        <v>10.27770625809705</v>
       </c>
       <c r="D18">
-        <v>5.653427831549286</v>
+        <v>8.956903856558442</v>
       </c>
       <c r="E18">
-        <v>8.937409718246926</v>
+        <v>13.68105368136502</v>
       </c>
       <c r="F18">
-        <v>33.01032214436405</v>
+        <v>35.11089929227093</v>
       </c>
       <c r="G18">
-        <v>45.02104181424414</v>
+        <v>39.5750754300194</v>
       </c>
       <c r="H18">
-        <v>12.32522276781025</v>
+        <v>16.21861652075263</v>
       </c>
       <c r="I18">
-        <v>23.84877788917711</v>
+        <v>27.077943807197</v>
       </c>
       <c r="J18">
-        <v>5.870601834036861</v>
+        <v>10.11802871762254</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.955043694943951</v>
+        <v>10.28500616954736</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568364</v>
       </c>
       <c r="O18">
-        <v>23.80808225396516</v>
+        <v>26.34433383519426</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.37574850464639</v>
+        <v>10.27677386884377</v>
       </c>
       <c r="D19">
-        <v>5.646764082079809</v>
+        <v>8.957267158325308</v>
       </c>
       <c r="E19">
-        <v>8.923968666719684</v>
+        <v>13.68128639011132</v>
       </c>
       <c r="F19">
-        <v>32.89544368541203</v>
+        <v>35.09161501483199</v>
       </c>
       <c r="G19">
-        <v>44.83978869580505</v>
+        <v>39.53171807743821</v>
       </c>
       <c r="H19">
-        <v>12.29399169939192</v>
+        <v>16.21598920358623</v>
       </c>
       <c r="I19">
-        <v>23.77158982617895</v>
+        <v>27.06686719854781</v>
       </c>
       <c r="J19">
-        <v>5.868099950020206</v>
+        <v>10.1191098758988</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.952690745715967</v>
+        <v>10.28610693461117</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985786</v>
       </c>
       <c r="O19">
-        <v>23.7285715824496</v>
+        <v>26.33213531316704</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.447697173875229</v>
+        <v>10.28108397978834</v>
       </c>
       <c r="D20">
-        <v>5.676887377273115</v>
+        <v>8.955709206869749</v>
       </c>
       <c r="E20">
-        <v>8.984666383579111</v>
+        <v>13.68037381653585</v>
       </c>
       <c r="F20">
-        <v>33.41106649639976</v>
+        <v>35.17885176091223</v>
       </c>
       <c r="G20">
-        <v>45.6522301846042</v>
+        <v>39.72714571648023</v>
       </c>
       <c r="H20">
-        <v>12.43454194907555</v>
+        <v>16.22800967227056</v>
       </c>
       <c r="I20">
-        <v>24.11826829423534</v>
+        <v>27.11707062021442</v>
       </c>
       <c r="J20">
-        <v>5.879537016113496</v>
+        <v>10.11431844882357</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.963454704337782</v>
+        <v>10.28122686701995</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799484618</v>
       </c>
       <c r="O20">
-        <v>24.08559564316537</v>
+        <v>26.38737493709641</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.690169583547626</v>
+        <v>10.29755639520365</v>
       </c>
       <c r="D21">
-        <v>5.780451659879576</v>
+        <v>8.951819023872796</v>
       </c>
       <c r="E21">
-        <v>9.192242854794843</v>
+        <v>13.67965983716093</v>
       </c>
       <c r="F21">
-        <v>35.11931287114001</v>
+        <v>35.47972179541733</v>
       </c>
       <c r="G21">
-        <v>48.32524138091588</v>
+        <v>40.38866008521513</v>
       </c>
       <c r="H21">
-        <v>12.90665322246237</v>
+        <v>16.27182804914001</v>
       </c>
       <c r="I21">
-        <v>25.27069194592342</v>
+        <v>27.29189872801589</v>
       </c>
       <c r="J21">
-        <v>5.921134559594211</v>
+        <v>10.09951178696438</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.002737745209432</v>
+        <v>10.26611517981393</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
-        <v>25.27094524981679</v>
+        <v>26.57888969274275</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.849030155524411</v>
+        <v>10.30979517933281</v>
       </c>
       <c r="D22">
-        <v>5.849868292467103</v>
+        <v>8.95027562090881</v>
       </c>
       <c r="E22">
-        <v>9.330551633609071</v>
+        <v>13.68094095816693</v>
       </c>
       <c r="F22">
-        <v>36.21708121926373</v>
+        <v>35.68189594445123</v>
       </c>
       <c r="G22">
-        <v>50.02973512837093</v>
+        <v>40.82392603959535</v>
       </c>
       <c r="H22">
-        <v>13.21486253441547</v>
+        <v>16.30299689102792</v>
       </c>
       <c r="I22">
-        <v>26.01411512328272</v>
+        <v>27.41061395752932</v>
       </c>
       <c r="J22">
-        <v>5.950746063015401</v>
+        <v>10.09079580500545</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.030793980265732</v>
+        <v>10.2571943953773</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>26.03455927857583</v>
+        <v>26.70831781823653</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.76421678762519</v>
+        <v>10.30312904882558</v>
       </c>
       <c r="D23">
-        <v>5.812662298309603</v>
+        <v>8.951008143760589</v>
       </c>
       <c r="E23">
-        <v>9.256495556003523</v>
+        <v>13.68009764378369</v>
       </c>
       <c r="F23">
-        <v>35.63292286311622</v>
+        <v>35.57350140083808</v>
       </c>
       <c r="G23">
-        <v>49.12390405097509</v>
+        <v>40.59139490749993</v>
       </c>
       <c r="H23">
-        <v>13.0504110740222</v>
+        <v>16.28613167351545</v>
       </c>
       <c r="I23">
-        <v>25.61825684777261</v>
+        <v>27.3468543214083</v>
       </c>
       <c r="J23">
-        <v>5.93471588265708</v>
+        <v>10.09535987393048</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.015597984765937</v>
+        <v>10.26186827498677</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110912574</v>
       </c>
       <c r="O23">
-        <v>25.62804359617284</v>
+        <v>26.63885931430897</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.443742901809318</v>
+        <v>10.28083977250388</v>
       </c>
       <c r="D24">
-        <v>5.67522423117881</v>
+        <v>8.9557896977356</v>
       </c>
       <c r="E24">
-        <v>8.981319273862807</v>
+        <v>13.68041506911904</v>
       </c>
       <c r="F24">
-        <v>33.38283988092802</v>
+        <v>35.17403129195932</v>
       </c>
       <c r="G24">
-        <v>45.60782694107737</v>
+        <v>39.71639345259885</v>
       </c>
       <c r="H24">
-        <v>12.4268233155286</v>
+        <v>16.22733659295999</v>
       </c>
       <c r="I24">
-        <v>24.09927529408969</v>
+        <v>27.11429022403617</v>
       </c>
       <c r="J24">
-        <v>5.878897174372633</v>
+        <v>10.11457670645486</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.962852017974962</v>
+        <v>10.28149001926079</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188672</v>
       </c>
       <c r="O24">
-        <v>24.0660415000737</v>
+        <v>26.38431881195814</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.100809782652126</v>
+        <v>10.26318924705725</v>
       </c>
       <c r="D25">
-        <v>5.534562670390932</v>
+        <v>8.965254705996339</v>
       </c>
       <c r="E25">
-        <v>8.696314286514236</v>
+        <v>13.68829407869677</v>
       </c>
       <c r="F25">
-        <v>30.88052884237468</v>
+        <v>34.76851179398107</v>
       </c>
       <c r="G25">
-        <v>41.63525532385551</v>
+        <v>38.78985591801244</v>
       </c>
       <c r="H25">
-        <v>11.75451061283814</v>
+        <v>16.17494762661981</v>
       </c>
       <c r="I25">
-        <v>22.42286548055407</v>
+        <v>26.88338189682043</v>
       </c>
       <c r="J25">
-        <v>5.828701856253622</v>
+        <v>10.13944290318591</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.915808064060403</v>
+        <v>10.30677011373446</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>22.3372948797484</v>
+        <v>26.1289950923724</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_181/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_181/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.25574820157827</v>
+        <v>6.85199512268616</v>
       </c>
       <c r="D2">
-        <v>8.975944711274103</v>
+        <v>5.43766879520811</v>
       </c>
       <c r="E2">
-        <v>13.70060417621826</v>
+        <v>8.497137618921252</v>
       </c>
       <c r="F2">
-        <v>34.4933259223421</v>
+        <v>28.98123653454433</v>
       </c>
       <c r="G2">
-        <v>38.12757742536483</v>
+        <v>38.56160571752291</v>
       </c>
       <c r="H2">
-        <v>16.1460037260745</v>
+        <v>11.26218891491034</v>
       </c>
       <c r="I2">
-        <v>26.73130812648933</v>
+        <v>21.16180069236902</v>
       </c>
       <c r="J2">
-        <v>10.16132451069943</v>
+        <v>5.799915979229965</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.32893753701934</v>
+        <v>5.889223222166822</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682251</v>
       </c>
       <c r="O2">
-        <v>25.95845761623621</v>
+        <v>21.03242594599082</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.25419415395192</v>
+        <v>6.686441129062525</v>
       </c>
       <c r="D3">
-        <v>8.98551772318287</v>
+        <v>5.37623775473249</v>
       </c>
       <c r="E3">
-        <v>13.71301761476383</v>
+        <v>8.369080680607272</v>
       </c>
       <c r="F3">
-        <v>34.32215378162775</v>
+        <v>27.66449737184832</v>
       </c>
       <c r="G3">
-        <v>37.69371076815724</v>
+        <v>36.39181408201676</v>
       </c>
       <c r="H3">
-        <v>16.13245442039478</v>
+        <v>10.9317538361179</v>
       </c>
       <c r="I3">
-        <v>26.63979269713969</v>
+        <v>20.29467857100969</v>
       </c>
       <c r="J3">
-        <v>10.17838943921167</v>
+        <v>5.785288492834378</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.34618474666646</v>
+        <v>5.876022990610306</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>25.85418634298525</v>
+        <v>20.13232674586704</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.25496736024115</v>
+        <v>6.586584202473309</v>
       </c>
       <c r="D4">
-        <v>8.992546182110372</v>
+        <v>5.340627551919986</v>
       </c>
       <c r="E4">
-        <v>13.72265027229677</v>
+        <v>8.293956715519247</v>
       </c>
       <c r="F4">
-        <v>34.22483470244289</v>
+        <v>26.84401977959813</v>
       </c>
       <c r="G4">
-        <v>37.43552600402946</v>
+        <v>35.01980718745936</v>
       </c>
       <c r="H4">
-        <v>16.12714361120193</v>
+        <v>10.73104033158798</v>
       </c>
       <c r="I4">
-        <v>26.58940240185017</v>
+        <v>19.75787183310131</v>
       </c>
       <c r="J4">
-        <v>10.18997233868124</v>
+        <v>5.778642981698834</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.35787407113777</v>
+        <v>5.870225320143011</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.3359507766292</v>
       </c>
       <c r="O4">
-        <v>25.79586358367011</v>
+        <v>19.57368069894927</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.25571774317531</v>
+        <v>6.546386617446613</v>
       </c>
       <c r="D5">
-        <v>8.995699989109644</v>
+        <v>5.326648942662159</v>
       </c>
       <c r="E5">
-        <v>13.72708169799827</v>
+        <v>8.264236548381632</v>
       </c>
       <c r="F5">
-        <v>34.18716484512658</v>
+        <v>26.50711437799643</v>
       </c>
       <c r="G5">
-        <v>37.33250096491668</v>
+        <v>34.45130040911722</v>
       </c>
       <c r="H5">
-        <v>16.12573820316199</v>
+        <v>10.64989050529971</v>
       </c>
       <c r="I5">
-        <v>26.57034141363614</v>
+        <v>19.53832160824269</v>
       </c>
       <c r="J5">
-        <v>10.19497065615716</v>
+        <v>5.7765116943631</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.3629143955219</v>
+        <v>5.868432850547829</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195409</v>
       </c>
       <c r="O5">
-        <v>25.77354764553522</v>
+        <v>19.34483998268805</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.2558686579164</v>
+        <v>6.539743017308361</v>
       </c>
       <c r="D6">
-        <v>8.996241179479636</v>
+        <v>5.324360044477968</v>
       </c>
       <c r="E6">
-        <v>13.72784810662931</v>
+        <v>8.259355830297913</v>
       </c>
       <c r="F6">
-        <v>34.18103076345408</v>
+        <v>26.45103198784028</v>
       </c>
       <c r="G6">
-        <v>37.31552933438714</v>
+        <v>34.35635223643553</v>
       </c>
       <c r="H6">
-        <v>16.12555072288738</v>
+        <v>10.63645731802629</v>
       </c>
       <c r="I6">
-        <v>26.5672657457999</v>
+        <v>19.50182695176556</v>
       </c>
       <c r="J6">
-        <v>10.1958174348461</v>
+        <v>5.776192323184705</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.36376806775663</v>
+        <v>5.868169350292652</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>25.76993022197651</v>
+        <v>19.30677941099289</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.25497571658037</v>
+        <v>6.5860400216958</v>
       </c>
       <c r="D7">
-        <v>8.992587542251956</v>
+        <v>5.340436871326514</v>
       </c>
       <c r="E7">
-        <v>13.72270798663786</v>
+        <v>8.293552266139068</v>
       </c>
       <c r="F7">
-        <v>34.22431858262571</v>
+        <v>26.83948583930146</v>
       </c>
       <c r="G7">
-        <v>37.43412755747885</v>
+        <v>35.01217730060524</v>
       </c>
       <c r="H7">
-        <v>16.12712158243223</v>
+        <v>10.72994318562707</v>
       </c>
       <c r="I7">
-        <v>26.58913935436021</v>
+        <v>19.75491369876798</v>
       </c>
       <c r="J7">
-        <v>10.1900386209079</v>
+        <v>5.778611916927139</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.35794092537158</v>
+        <v>5.870198851209028</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304767602</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>25.79555672589981</v>
+        <v>19.57059883628006</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.25485445262171</v>
+        <v>6.794565888803275</v>
       </c>
       <c r="D8">
-        <v>8.979006887707259</v>
+        <v>5.416051517388762</v>
       </c>
       <c r="E8">
-        <v>13.70446727631461</v>
+        <v>8.45226437078707</v>
       </c>
       <c r="F8">
-        <v>34.43271069899556</v>
+        <v>28.52997137882323</v>
       </c>
       <c r="G8">
-        <v>37.97635093970683</v>
+        <v>37.82202641776621</v>
       </c>
       <c r="H8">
-        <v>16.14070899972144</v>
+        <v>11.14785941926579</v>
       </c>
       <c r="I8">
-        <v>26.69855913196358</v>
+        <v>20.86390134569499</v>
       </c>
       <c r="J8">
-        <v>10.16697936907393</v>
+        <v>5.794381295393375</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.33465639849372</v>
+        <v>5.884186860029804</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>25.92133296682617</v>
+        <v>20.72349054557655</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.26827549925819</v>
+        <v>7.2158507817424</v>
       </c>
       <c r="D9">
-        <v>8.961489428108681</v>
+        <v>5.580918086465224</v>
       </c>
       <c r="E9">
-        <v>13.68463057890935</v>
+        <v>8.790696935012116</v>
       </c>
       <c r="F9">
-        <v>34.90157944826341</v>
+        <v>31.73290744012532</v>
       </c>
       <c r="G9">
-        <v>39.09920595849644</v>
+        <v>42.99708649360158</v>
       </c>
       <c r="H9">
-        <v>16.19110787293888</v>
+        <v>11.98074374812117</v>
       </c>
       <c r="I9">
-        <v>26.95842681131283</v>
+        <v>22.99218785521256</v>
       </c>
       <c r="J9">
-        <v>10.13051262704167</v>
+        <v>5.844311655479365</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.29770340712711</v>
+        <v>5.930376209785488</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380644</v>
       </c>
       <c r="O9">
-        <v>26.21234824143748</v>
+        <v>22.92505832189503</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.28638961953558</v>
+        <v>7.53056571773776</v>
       </c>
       <c r="D10">
-        <v>8.954153750359495</v>
+        <v>5.711937900384142</v>
       </c>
       <c r="E10">
-        <v>13.67973727800897</v>
+        <v>9.055100715487166</v>
       </c>
       <c r="F10">
-        <v>35.28053749958867</v>
+        <v>33.99975281600005</v>
       </c>
       <c r="G10">
-        <v>39.95276507461049</v>
+        <v>46.57647283915164</v>
       </c>
       <c r="H10">
-        <v>16.24243436187514</v>
+        <v>12.59614812492763</v>
       </c>
       <c r="I10">
-        <v>27.17588296160245</v>
+        <v>24.5147595232296</v>
       </c>
       <c r="J10">
-        <v>10.10903585112762</v>
+        <v>5.893238623308647</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.2758410929544</v>
+        <v>5.976373315820734</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
-        <v>26.45193824389075</v>
+        <v>24.49365809705517</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.29640291300782</v>
+        <v>7.674431874022202</v>
       </c>
       <c r="D11">
-        <v>8.952012810803081</v>
+        <v>5.773639467686271</v>
       </c>
       <c r="E11">
-        <v>13.67960411940139</v>
+        <v>9.178636675745365</v>
       </c>
       <c r="F11">
-        <v>35.459897779369</v>
+        <v>35.0096977325377</v>
       </c>
       <c r="G11">
-        <v>40.34560918664415</v>
+        <v>48.15450775651129</v>
       </c>
       <c r="H11">
-        <v>16.26884059538284</v>
+        <v>12.8760762738368</v>
       </c>
       <c r="I11">
-        <v>27.28030770749324</v>
+        <v>25.19657532757123</v>
       </c>
       <c r="J11">
-        <v>10.10041518649371</v>
+        <v>5.918299058517348</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.26703866062771</v>
+        <v>6.000054636715057</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374475</v>
       </c>
       <c r="O11">
-        <v>26.56622826055476</v>
+        <v>25.19477334421618</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.30044764780796</v>
+        <v>7.72897986470061</v>
       </c>
       <c r="D12">
-        <v>8.951373534015241</v>
+        <v>5.797301852529551</v>
       </c>
       <c r="E12">
-        <v>13.67985363855861</v>
+        <v>9.225871770773352</v>
       </c>
       <c r="F12">
-        <v>35.52877180817411</v>
+        <v>35.38894381546412</v>
       </c>
       <c r="G12">
-        <v>40.49488415481617</v>
+        <v>48.74478502034455</v>
       </c>
       <c r="H12">
-        <v>16.27927474049112</v>
+        <v>12.98202290269743</v>
       </c>
       <c r="I12">
-        <v>27.3206175292483</v>
+        <v>25.45309575138547</v>
       </c>
       <c r="J12">
-        <v>10.09731563409771</v>
+        <v>5.928203949173177</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.26386934274421</v>
+        <v>6.009430030759349</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>26.61024105061237</v>
+        <v>25.45837345932063</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.29956532796522</v>
+        <v>7.717229366331557</v>
       </c>
       <c r="D13">
-        <v>8.951503597632469</v>
+        <v>5.792192578796648</v>
       </c>
       <c r="E13">
-        <v>13.67978657735496</v>
+        <v>9.215678821752803</v>
       </c>
       <c r="F13">
-        <v>35.51389690145547</v>
+        <v>35.30741030946876</v>
       </c>
       <c r="G13">
-        <v>40.46271452596196</v>
+        <v>48.61798275520523</v>
       </c>
       <c r="H13">
-        <v>16.27700831258677</v>
+        <v>12.95920860742582</v>
       </c>
       <c r="I13">
-        <v>27.31190241010112</v>
+        <v>25.39792512206719</v>
       </c>
       <c r="J13">
-        <v>10.09797584964782</v>
+        <v>5.926052099537974</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.26454462532379</v>
+        <v>6.007392550423429</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>26.60072994580684</v>
+        <v>25.40168813043705</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.29673061937078</v>
+        <v>7.678918352638163</v>
       </c>
       <c r="D14">
-        <v>8.951956784298698</v>
+        <v>5.775580252009032</v>
       </c>
       <c r="E14">
-        <v>13.67961864235957</v>
+        <v>9.182513693954171</v>
       </c>
       <c r="F14">
-        <v>35.46554524596029</v>
+        <v>35.04096325215522</v>
       </c>
       <c r="G14">
-        <v>40.35788064500555</v>
+        <v>48.20321644585734</v>
       </c>
       <c r="H14">
-        <v>16.26969033741641</v>
+        <v>12.88479395051924</v>
       </c>
       <c r="I14">
-        <v>27.2836088072991</v>
+        <v>25.21771337914348</v>
       </c>
       <c r="J14">
-        <v>10.10015688154475</v>
+        <v>5.919105551710683</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.26677463483672</v>
+        <v>6.000817716912614</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>26.56983468329439</v>
+        <v>25.21649838183605</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.29502715164683</v>
+        <v>7.655459872378989</v>
       </c>
       <c r="D15">
-        <v>8.95225668507454</v>
+        <v>5.765443315142409</v>
       </c>
       <c r="E15">
-        <v>13.67955480695894</v>
+        <v>9.16225793812699</v>
       </c>
       <c r="F15">
-        <v>35.43605126447464</v>
+        <v>34.87733695689523</v>
       </c>
       <c r="G15">
-        <v>40.29372954679263</v>
+        <v>47.94821000187658</v>
       </c>
       <c r="H15">
-        <v>16.26526431818738</v>
+        <v>12.83920415782116</v>
       </c>
       <c r="I15">
-        <v>27.26637721108154</v>
+        <v>25.10710844039896</v>
       </c>
       <c r="J15">
-        <v>10.10151429156747</v>
+        <v>5.914905003768751</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.2681619229725</v>
+        <v>5.99684389125894</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549384</v>
       </c>
       <c r="O15">
-        <v>26.55100511959452</v>
+        <v>25.10281473685154</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.28577073563207</v>
+        <v>7.521175007462483</v>
       </c>
       <c r="D16">
-        <v>8.954317688712706</v>
+        <v>5.707947408907683</v>
       </c>
       <c r="E16">
-        <v>13.67978801038091</v>
+        <v>9.047091683923712</v>
       </c>
       <c r="F16">
-        <v>35.26895207073295</v>
+        <v>33.933309489249</v>
       </c>
       <c r="G16">
-        <v>39.9271713231511</v>
+        <v>46.47232623757561</v>
       </c>
       <c r="H16">
-        <v>16.24076976162575</v>
+        <v>12.5778489190011</v>
       </c>
       <c r="I16">
-        <v>27.16916719476818</v>
+        <v>24.46997316316761</v>
       </c>
       <c r="J16">
-        <v>10.10962232749499</v>
+        <v>5.891658285419583</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.27643931841222</v>
+        <v>5.974882124471734</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>26.44457336149639</v>
+        <v>24.44757806533539</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.28054495942445</v>
+        <v>7.438951043114617</v>
       </c>
       <c r="D17">
-        <v>8.955888023426642</v>
+        <v>5.673209966514319</v>
       </c>
       <c r="E17">
-        <v>13.68046642217093</v>
+        <v>8.977264906055481</v>
       </c>
       <c r="F17">
-        <v>35.16819373417128</v>
+        <v>33.3486172728676</v>
       </c>
       <c r="G17">
-        <v>39.7033654192106</v>
+        <v>45.55398042516974</v>
       </c>
       <c r="H17">
-        <v>16.22652284865344</v>
+        <v>12.41746882728339</v>
       </c>
       <c r="I17">
-        <v>27.11092414121871</v>
+        <v>24.07625001197343</v>
       </c>
       <c r="J17">
-        <v>10.11489044382608</v>
+        <v>5.878123536734257</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.28180968445781</v>
+        <v>5.962123380663479</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.9381421901699</v>
+        <v>29.88120505119272</v>
       </c>
       <c r="O17">
-        <v>26.3806184330623</v>
+        <v>24.0423350804908</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.27770625809705</v>
+        <v>7.391725583294193</v>
       </c>
       <c r="D18">
-        <v>8.956903856558442</v>
+        <v>5.653427831549364</v>
       </c>
       <c r="E18">
-        <v>13.68105368136502</v>
+        <v>8.937409718246878</v>
       </c>
       <c r="F18">
-        <v>35.11089929227093</v>
+        <v>33.010322144364</v>
       </c>
       <c r="G18">
-        <v>39.5750754300194</v>
+        <v>45.02104181424413</v>
       </c>
       <c r="H18">
-        <v>16.21861652075263</v>
+        <v>12.32522276781022</v>
       </c>
       <c r="I18">
-        <v>27.077943807197</v>
+        <v>23.84877788917707</v>
       </c>
       <c r="J18">
-        <v>10.11802871762254</v>
+        <v>5.870601834036813</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.28500616954736</v>
+        <v>5.955043694943952</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568364</v>
+        <v>29.56404287680425</v>
       </c>
       <c r="O18">
-        <v>26.34433383519426</v>
+        <v>23.80808225396512</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.27677386884377</v>
+        <v>7.375748504646324</v>
       </c>
       <c r="D19">
-        <v>8.957267158325308</v>
+        <v>5.64676408207968</v>
       </c>
       <c r="E19">
-        <v>13.68128639011132</v>
+        <v>8.923968666719491</v>
       </c>
       <c r="F19">
-        <v>35.09161501483199</v>
+        <v>32.89544368541195</v>
       </c>
       <c r="G19">
-        <v>39.53171807743821</v>
+        <v>44.83978869580503</v>
       </c>
       <c r="H19">
-        <v>16.21598920358623</v>
+        <v>12.29399169939189</v>
       </c>
       <c r="I19">
-        <v>27.06686719854781</v>
+        <v>23.77158982617889</v>
       </c>
       <c r="J19">
-        <v>10.1191098758988</v>
+        <v>5.868099950020186</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.28610693461117</v>
+        <v>5.952690745715914</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985786</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>26.33213531316704</v>
+        <v>23.72857158244955</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.28108397978834</v>
+        <v>7.44769717387528</v>
       </c>
       <c r="D20">
-        <v>8.955709206869749</v>
+        <v>5.676887377273148</v>
       </c>
       <c r="E20">
-        <v>13.68037381653585</v>
+        <v>8.984666383579066</v>
       </c>
       <c r="F20">
-        <v>35.17885176091223</v>
+        <v>33.41106649639974</v>
       </c>
       <c r="G20">
-        <v>39.72714571648023</v>
+        <v>45.65223018460416</v>
       </c>
       <c r="H20">
-        <v>16.22800967227056</v>
+        <v>12.43454194907554</v>
       </c>
       <c r="I20">
-        <v>27.11707062021442</v>
+        <v>24.11826829423532</v>
       </c>
       <c r="J20">
-        <v>10.11431844882357</v>
+        <v>5.879537016113519</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.28122686701995</v>
+        <v>5.963454704337781</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799484618</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>26.38737493709641</v>
+        <v>24.08559564316536</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.29755639520365</v>
+        <v>7.690169583547545</v>
       </c>
       <c r="D21">
-        <v>8.951819023872796</v>
+        <v>5.780451659879637</v>
       </c>
       <c r="E21">
-        <v>13.67965983716093</v>
+        <v>9.192242854794747</v>
       </c>
       <c r="F21">
-        <v>35.47972179541733</v>
+        <v>35.11931287114005</v>
       </c>
       <c r="G21">
-        <v>40.38866008521513</v>
+        <v>48.32524138091592</v>
       </c>
       <c r="H21">
-        <v>16.27182804914001</v>
+        <v>12.90665322246241</v>
       </c>
       <c r="I21">
-        <v>27.29189872801589</v>
+        <v>25.27069194592345</v>
       </c>
       <c r="J21">
-        <v>10.09951178696438</v>
+        <v>5.921134559594168</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.26611517981393</v>
+        <v>6.002737745209426</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>26.57888969274275</v>
+        <v>25.27094524981682</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.30979517933281</v>
+        <v>7.849030155524425</v>
       </c>
       <c r="D22">
-        <v>8.95027562090881</v>
+        <v>5.849868292467055</v>
       </c>
       <c r="E22">
-        <v>13.68094095816693</v>
+        <v>9.330551633609071</v>
       </c>
       <c r="F22">
-        <v>35.68189594445123</v>
+        <v>36.21708121926373</v>
       </c>
       <c r="G22">
-        <v>40.82392603959535</v>
+        <v>50.02973512837088</v>
       </c>
       <c r="H22">
-        <v>16.30299689102792</v>
+        <v>13.21486253441547</v>
       </c>
       <c r="I22">
-        <v>27.41061395752932</v>
+        <v>26.01411512328272</v>
       </c>
       <c r="J22">
-        <v>10.09079580500545</v>
+        <v>5.950746063015376</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.2571943953773</v>
+        <v>6.030793980265702</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>26.70831781823653</v>
+        <v>26.03455927857583</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.30312904882558</v>
+        <v>7.76421678762519</v>
       </c>
       <c r="D23">
-        <v>8.951008143760589</v>
+        <v>5.812662298309562</v>
       </c>
       <c r="E23">
-        <v>13.68009764378369</v>
+        <v>9.256495556003514</v>
       </c>
       <c r="F23">
-        <v>35.57350140083808</v>
+        <v>35.63292286311622</v>
       </c>
       <c r="G23">
-        <v>40.59139490749993</v>
+        <v>49.12390405097511</v>
       </c>
       <c r="H23">
-        <v>16.28613167351545</v>
+        <v>13.05041107402221</v>
       </c>
       <c r="I23">
-        <v>27.3468543214083</v>
+        <v>25.6182568477726</v>
       </c>
       <c r="J23">
-        <v>10.09535987393048</v>
+        <v>5.934715882657099</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.26186827498677</v>
+        <v>6.015597984765932</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110912574</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>26.63885931430897</v>
+        <v>25.62804359617284</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.28083977250388</v>
+        <v>7.443742901809254</v>
       </c>
       <c r="D24">
-        <v>8.9557896977356</v>
+        <v>5.675224231178913</v>
       </c>
       <c r="E24">
-        <v>13.68041506911904</v>
+        <v>8.981319273862772</v>
       </c>
       <c r="F24">
-        <v>35.17403129195932</v>
+        <v>33.38283988092805</v>
       </c>
       <c r="G24">
-        <v>39.71639345259885</v>
+        <v>45.6078269410774</v>
       </c>
       <c r="H24">
-        <v>16.22733659295999</v>
+        <v>12.42682331552861</v>
       </c>
       <c r="I24">
-        <v>27.11429022403617</v>
+        <v>24.0992752940897</v>
       </c>
       <c r="J24">
-        <v>10.11457670645486</v>
+        <v>5.878897174372605</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.28149001926079</v>
+        <v>5.962852017974962</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188672</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>26.38431881195814</v>
+        <v>24.06604150007371</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.26318924705725</v>
+        <v>7.100809782652136</v>
       </c>
       <c r="D25">
-        <v>8.965254705996339</v>
+        <v>5.534562670390883</v>
       </c>
       <c r="E25">
-        <v>13.68829407869677</v>
+        <v>8.696314286514273</v>
       </c>
       <c r="F25">
-        <v>34.76851179398107</v>
+        <v>30.88052884237468</v>
       </c>
       <c r="G25">
-        <v>38.78985591801244</v>
+        <v>41.63525532385556</v>
       </c>
       <c r="H25">
-        <v>16.17494762661981</v>
+        <v>11.75451061283813</v>
       </c>
       <c r="I25">
-        <v>26.88338189682043</v>
+        <v>22.42286548055407</v>
       </c>
       <c r="J25">
-        <v>10.13944290318591</v>
+        <v>5.828701856253652</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.30677011373446</v>
+        <v>5.915808064060424</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>26.1289950923724</v>
+        <v>22.3372948797484</v>
       </c>
     </row>
   </sheetData>
